--- a/config_Release/sysjjj_config.xlsx
+++ b/config_Release/sysjjj_config.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>line</t>
   </si>
@@ -27,19 +27,72 @@
     <t>permission|权限</t>
   </si>
   <si>
+    <t>GAME_Di_Bao_JB_HH|豪华领取</t>
+  </si>
+  <si>
+    <t>HH_btn_desc|豪华按钮描述</t>
+  </si>
+  <si>
+    <t>HH_tips|豪华提示</t>
+  </si>
+  <si>
+    <t>jjj_3dby_official</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jjj_cjj_official</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jjj_cjj_cpl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终身免广告领取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豪华领取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>98%用户已选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6倍领取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加倍领取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goto_ui_condikey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goto_ui</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goto_ui_tip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"豪华周卡专享","豪华月卡专享",</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jjj_week_limit","jjj_month_limit"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>GAME_Di_Bao_JB|普通领取</t>
-  </si>
-  <si>
-    <t>GAME_Di_Bao_JB_HH|豪华领取</t>
-  </si>
-  <si>
-    <t>HH_btn_desc|豪华按钮描述</t>
-  </si>
-  <si>
-    <t>HH_tips|豪华提示</t>
-  </si>
-  <si>
-    <t>jjj_3dby_official</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -47,55 +100,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>jjj_cjj_official</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jjj_cjj_cpl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>终身免广告领取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>豪华领取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>98%用户已选择</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6倍领取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加倍领取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goto_ui_condikey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goto_ui</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goto_ui_tip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"豪华周卡专享","豪华月卡专享",</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"jjj_week_limit","jjj_month_limit"</t>
+    <t>GAME_Di_Bao_limit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -463,190 +468,206 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2">
         <v>30000</v>
       </c>
       <c r="D2" s="1">
+        <v>30000</v>
+      </c>
+      <c r="E2" s="1">
         <v>118888</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2">
+        <v>5000</v>
+      </c>
+      <c r="D3" s="1">
         <v>10000</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>98000</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
         <v>30000</v>
       </c>
       <c r="D4" s="1">
+        <v>30000</v>
+      </c>
+      <c r="E4" s="1">
         <v>60000</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2">
         <v>10000</v>
       </c>
       <c r="D5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="E5" s="1">
         <v>60000</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -660,8 +681,9 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -675,8 +697,9 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -690,8 +713,9 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -705,8 +729,9 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -720,8 +745,9 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -735,8 +761,9 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -750,8 +777,9 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -765,8 +793,9 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -780,8 +809,9 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -795,8 +825,9 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -810,8 +841,9 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -825,8 +857,9 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -840,8 +873,9 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -855,8 +889,9 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -870,8 +905,9 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -885,8 +921,9 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -900,8 +937,9 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -915,8 +953,9 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -930,6 +969,7 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/config_Release/sysjjj_config.xlsx
+++ b/config_Release/sysjjj_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>line</t>
   </si>
@@ -101,6 +101,10 @@
   </si>
   <si>
     <t>GAME_Di_Bao_limit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jjj_week_limit","jjj_month_limit"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -471,7 +475,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -618,7 +622,7 @@
         <v>10</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>17</v>
